--- a/who-we-wanna-see.xlsx
+++ b/who-we-wanna-see.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davis\Documents\Side-Projects\outside-scrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57420744-E812-4152-83CB-5FB4D9334F04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7471627E-E619-4F87-AB9F-33BE3C6DEA57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7186F938-EB5B-4BD7-8B50-73FE86E7EC41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="165">
   <si>
     <t>Twenty One Pilots</t>
   </si>
@@ -478,6 +478,54 @@
   </si>
   <si>
     <t>Maybe</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>SF Chronicle</t>
+  </si>
+  <si>
+    <t>Riff Magazine</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Christian…</t>
+  </si>
+  <si>
+    <t>Trap rap great live</t>
+  </si>
+  <si>
+    <t>Dance Vibes</t>
+  </si>
+  <si>
+    <t>Genre-blurred hip hop</t>
+  </si>
+  <si>
+    <t>Indietronica (emotive)</t>
+  </si>
+  <si>
+    <t>Brassy EDM (Chance the Rappers last album)</t>
+  </si>
+  <si>
+    <t>Good live Long Beach rock?</t>
+  </si>
+  <si>
+    <t>Jazzy rap</t>
+  </si>
+  <si>
+    <t>SF Chronicle, Riff Magazine</t>
+  </si>
+  <si>
+    <t>R&amp;B</t>
+  </si>
+  <si>
+    <t>Melodic techno</t>
+  </si>
+  <si>
+    <t>Sounds like off-brand Mac Damarco</t>
   </si>
 </sst>
 </file>
@@ -829,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FBB387-472B-4CE9-9BF4-7CA6B77C3B08}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +890,7 @@
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -858,8 +906,14 @@
       <c r="E1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -873,7 +927,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -890,7 +944,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -907,7 +961,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -921,7 +975,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -935,7 +989,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -948,8 +1002,14 @@
       <c r="D7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -962,8 +1022,14 @@
       <c r="D8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -980,7 +1046,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -994,7 +1060,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1008,7 +1074,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1022,7 +1088,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1035,8 +1101,14 @@
       <c r="D13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1050,7 +1122,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1136,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1149,11 @@
       <c r="D16" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1091,8 +1166,14 @@
       <c r="D17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1105,8 +1186,14 @@
       <c r="D18" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1120,7 +1207,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1134,7 +1221,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1148,7 +1235,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1161,8 +1248,14 @@
       <c r="D22" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1175,8 +1268,14 @@
       <c r="D23" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1190,7 +1289,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1204,7 +1303,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1218,7 +1317,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1232,7 +1331,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1245,8 +1344,14 @@
       <c r="D28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1259,8 +1364,14 @@
       <c r="D29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1274,7 +1385,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1287,8 +1398,14 @@
       <c r="D31" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1302,7 +1419,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1316,7 +1433,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1330,7 +1447,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1343,8 +1460,14 @@
       <c r="D35" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1358,7 +1481,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1372,7 +1495,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1386,7 +1509,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1400,7 +1523,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1414,7 +1537,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1428,7 +1551,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1442,7 +1565,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1455,8 +1578,11 @@
       <c r="D43" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1470,7 +1596,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1484,7 +1610,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1497,8 +1623,14 @@
       <c r="D46" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1512,7 +1644,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1526,7 +1658,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1540,7 +1672,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1554,7 +1686,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1568,7 +1700,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1582,7 +1714,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1596,7 +1728,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1612,8 +1744,11 @@
       <c r="E54" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1626,8 +1761,11 @@
       <c r="D55" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1640,8 +1778,11 @@
       <c r="D56" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1655,7 +1796,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1669,7 +1810,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1682,8 +1823,14 @@
       <c r="D59" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1700,7 +1847,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1716,8 +1863,11 @@
       <c r="E61" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1731,7 +1881,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1745,7 +1895,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1759,7 +1909,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1773,7 +1923,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1787,7 +1937,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1801,7 +1951,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1815,7 +1965,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1829,7 +1979,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1842,8 +1992,14 @@
       <c r="D70" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>151</v>
+      </c>
+      <c r="G70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1856,8 +2012,14 @@
       <c r="D71" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>151</v>
+      </c>
+      <c r="G71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1871,7 +2033,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1884,8 +2046,17 @@
       <c r="D73" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>148</v>
+      </c>
+      <c r="F73" t="s">
+        <v>151</v>
+      </c>
+      <c r="G73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -1899,7 +2070,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -1913,7 +2084,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1927,7 +2098,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -1941,7 +2112,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
